--- a/src/test/java/day13_webTables_ExcelAutomation/countries.xlsx
+++ b/src/test/java/day13_webTables_ExcelAutomation/countries.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legen\OneDrive\Masaüstü\Programming\Wise Quarter\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="591">
   <si>
     <t>Country</t>
   </si>
@@ -1806,12 +1806,16 @@
   </si>
   <si>
     <t>S. America</t>
+  </si>
+  <si>
+    <t>Nüfus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -2245,10 +2249,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="27.109375"/>
+    <col min="2" max="2" customWidth="true" style="2" width="14.21875"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.77734375"/>
+    <col min="4" max="4" customWidth="true" style="2" width="12.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6">
@@ -2264,6 +2268,9 @@
       <c r="D1" s="6" t="s">
         <v>584</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>590</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.6">
@@ -2279,6 +2286,9 @@
       <c r="D2" s="4" t="s">
         <v>585</v>
       </c>
+      <c r="E2" t="n" s="0">
+        <v>1500000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4" t="s">
@@ -2391,6 +2401,9 @@
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E10" t="n" s="0">
+        <v>250000.0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="4" t="s">
@@ -2460,6 +2473,9 @@
       </c>
       <c r="D15" s="4" t="s">
         <v>585</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>54000.0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6">
